--- a/matrix/reviewed/windows/signup_reviewed/signup_reviewed.xlsx
+++ b/matrix/reviewed/windows/signup_reviewed/signup_reviewed.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases_bk\matrix\reviewed\signup_reviewed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\matrix\reviewed\windows\signup_reviewed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1BC280-5244-4FA2-BAAD-C5070DFF3673}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBE6EF4-332C-4050-AD16-F989762D4E2A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="32">
   <si>
     <t>T001</t>
   </si>
@@ -233,14 +233,126 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp100.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp101.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp102.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp103.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp104.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp105.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp106.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp107.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp108.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp109.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp110.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp111.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp112.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp113.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp114.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp115.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp116.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp117.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp118.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp119.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp120.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp121.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp122.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp123.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp124.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp125.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp126.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp127.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
@@ -602,6 +714,22 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp95.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp96.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp97.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp98.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp99.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
@@ -7070,6 +7198,2046 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="2571750" y="581025"/>
+          <a:ext cx="619125" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1253" name="Check Box 229" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1253"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9B880E0-A9D9-4858-BA56-FB30C5A9C94B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1254" name="Check Box 230" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1254"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85CDBBA3-DC76-45C1-AA14-B38EC3FBBAB2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1255" name="Check Box 231" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1255"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4DA54F-7C6F-4C35-AD47-ED69BB00E8F2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1256" name="Check Box 232" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1256"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98A81E72-0C73-47CF-83A2-72011E287AD4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1257" name="Check Box 233" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1257"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73462F5C-8ED5-4635-BDC0-7BD0527A34F8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1258" name="Check Box 234" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1258"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13A19544-3068-44A9-AA72-B922FBD2769A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1259" name="Check Box 235" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1259"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72483CDC-3524-4334-BA1C-B013E6A03F53}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1260" name="Check Box 236" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1260"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4D1DA25-B374-4A6C-83E6-7B83BE4C23F7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1261" name="Check Box 237" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1261"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F9E0536-A6F2-4821-A394-015AFFAD1F20}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1262" name="Check Box 238" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1262"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4E7F337-E700-4C8A-AD8E-D25C72B6566A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1263" name="Check Box 239" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1263"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF5315D7-9C82-4485-82A5-19863B1320F9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1264" name="Check Box 240" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1264"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1215D3D7-B3CF-41A9-AD7D-DBF8FA6AC5F0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1265" name="Check Box 241" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1265"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FC25CB3-8D48-4B47-9FB3-29D9C5D3148F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1266" name="Check Box 242" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1266"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BD2C8A9-B223-49B6-AF61-B90DFCD1CA20}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1267" name="Check Box 243" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1267"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D7A444A-A9B3-43A7-94E4-2AD24CCE8658}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1268" name="Check Box 244" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1268"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1798C718-AD1A-470D-93E4-380BE0EFEE3F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1269" name="Check Box 245" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1269"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54544545-667A-4A6B-92F9-2D1506720547}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1270" name="Check Box 246" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1270"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93477463-5373-4291-92AF-05286B524EC2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1271" name="Check Box 247" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1271"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E620CDC-D3A1-46FC-ADDE-59CAA49EB326}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1272" name="Check Box 248" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1272"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5407FAC0-6E6E-4866-93E7-0A25B6F79372}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1273" name="Check Box 249" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1273"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{850D5FBC-9367-4289-91D6-349D335D20D0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1274" name="Check Box 250" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1274"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1BA422F-991D-42BE-81B7-9DC432F73C6A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1275" name="Check Box 251" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1275"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A537EA4C-AA83-4176-8DC8-12EF35024122}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1276" name="Check Box 252" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1276"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A9FBABB-AA26-4973-95AD-899AB446ECB1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1277" name="Check Box 253" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1277"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A550A7FC-2821-4B52-963D-75DDD3A1DB8E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1278" name="Check Box 254" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1278"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{940881B5-5CA5-41DF-A38B-344B6B220AFA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1279" name="Check Box 255" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1279"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22FAC26A-5533-404C-82E4-6027FD614284}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1280" name="Check Box 256" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1280"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7663E401-E91B-4F79-BC88-361FCD690FA1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1281" name="Check Box 257" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1281"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6481E40E-0A6D-4188-8768-11EBC1E46143}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1282" name="Check Box 258" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1282"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43753BA6-E697-4212-8D49-2AACE794BB32}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1283" name="Check Box 259" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1283"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{856F2437-EF31-49F2-8B43-BDC552F440BC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1284" name="Check Box 260" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1284"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EC3B144-9ADB-4FFE-9A51-D24777612D04}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="200025"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="131" name="Picture 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24F5BA3F-5476-4706-B73B-CAB6796A4712}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="3962400"/>
           <a:ext cx="619125" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7358,7 +9526,7 @@
   <dimension ref="A2:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7764,23 +9932,53 @@
     </row>
     <row r="27" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="B28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="29" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="3"/>
+      <c r="B29" s="3">
+        <v>45314</v>
+      </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -7796,19 +9994,45 @@
       <c r="O29" s="4"/>
     </row>
     <row r="30" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="31" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="4"/>
@@ -7826,16 +10050,18 @@
       <c r="O31" s="4"/>
     </row>
     <row r="32" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9934,6 +12160,710 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1253" r:id="rId98" name="Check Box 229">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1254" r:id="rId99" name="Check Box 230">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1255" r:id="rId100" name="Check Box 231">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1256" r:id="rId101" name="Check Box 232">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1257" r:id="rId102" name="Check Box 233">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1258" r:id="rId103" name="Check Box 234">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1259" r:id="rId104" name="Check Box 235">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1260" r:id="rId105" name="Check Box 236">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1261" r:id="rId106" name="Check Box 237">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1262" r:id="rId107" name="Check Box 238">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1263" r:id="rId108" name="Check Box 239">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1264" r:id="rId109" name="Check Box 240">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1265" r:id="rId110" name="Check Box 241">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1266" r:id="rId111" name="Check Box 242">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1267" r:id="rId112" name="Check Box 243">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1268" r:id="rId113" name="Check Box 244">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1269" r:id="rId114" name="Check Box 245">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1270" r:id="rId115" name="Check Box 246">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1271" r:id="rId116" name="Check Box 247">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1272" r:id="rId117" name="Check Box 248">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1273" r:id="rId118" name="Check Box 249">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1274" r:id="rId119" name="Check Box 250">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1275" r:id="rId120" name="Check Box 251">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1276" r:id="rId121" name="Check Box 252">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1277" r:id="rId122" name="Check Box 253">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1278" r:id="rId123" name="Check Box 254">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1279" r:id="rId124" name="Check Box 255">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1280" r:id="rId125" name="Check Box 256">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1281" r:id="rId126" name="Check Box 257">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1282" r:id="rId127" name="Check Box 258">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1283" r:id="rId128" name="Check Box 259">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>33</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1284" r:id="rId129" name="Check Box 260">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>33</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
